--- a/pytest.xlsx
+++ b/pytest.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="147">
   <si>
     <t>Testing : Asda : New Trading Partner Setup</t>
   </si>
@@ -378,97 +378,88 @@
     <t>Testing : Wilfrid Laurier University Jaggaer Cxml : New Trading Partner Setup</t>
   </si>
   <si>
-    <t>Testing : Pepsi Frito Lay - Supplier Net : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pepsi Frito Lay - Supplier Net </t>
-  </si>
-  <si>
-    <t>PepsicoEC.ProdSup@PepsiCo.Com</t>
+    <t>Testing : Cosma - Bowling Green Metalforming : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Cosma - Bowling Green Metalforming</t>
+  </si>
+  <si>
+    <t>jana.iddings@magna.com</t>
   </si>
   <si>
     <t>done</t>
   </si>
   <si>
-    <t>Testing : Primary Arms Vendor : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Primary Arms Vendor </t>
+    <t>Testing : Maisonetteold : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Maisonetteold</t>
+  </si>
+  <si>
+    <t>No Contacts</t>
+  </si>
+  <si>
+    <t>Testing : Danone Can : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Danone Can</t>
+  </si>
+  <si>
+    <t>edisupport.na@danone.com</t>
+  </si>
+  <si>
+    <t>Testing : Logex : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Logex</t>
+  </si>
+  <si>
+    <t>corey.coogan@logisticallyinc.com</t>
+  </si>
+  <si>
+    <t>Testing : Weas : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Weas</t>
+  </si>
+  <si>
+    <t>jennifer@techgroupintl.com</t>
+  </si>
+  <si>
+    <t>stephen.girt@weasengineering.com</t>
+  </si>
+  <si>
+    <t>Testing : Ahold Delhaize RBS : New Label Setup</t>
+  </si>
+  <si>
+    <t>Ahold Delhaize RBS</t>
+  </si>
+  <si>
+    <t>RBSEsupport@RetailBusinessServices.com</t>
+  </si>
+  <si>
+    <t>Testing : Les Schwab : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Les Schwab</t>
+  </si>
+  <si>
+    <t>elian.rojas@contractors.lesschwab.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Testing : Martha Stewart : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Martha Stewart</t>
+  </si>
+  <si>
+    <t>Testing : Agway Vendor : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Agway Vendor</t>
   </si>
   <si>
     <t>sps@sps.com</t>
-  </si>
-  <si>
-    <t>Testing : Qfloors Vendor : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Qfloors Vendor </t>
-  </si>
-  <si>
-    <t>javier.s@happy-floors.com</t>
-  </si>
-  <si>
-    <t>todd@qprosoftware.com</t>
-  </si>
-  <si>
-    <t>Testing : RFMS Vendor : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RFMS Vendor </t>
-  </si>
-  <si>
-    <t>dmarshello@rfms.com</t>
-  </si>
-  <si>
-    <t>Testing : Roll Master Vendor : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roll Master Vendor </t>
-  </si>
-  <si>
-    <t>No Contacts</t>
-  </si>
-  <si>
-    <t>Testing : Trenton Cold Storage : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trenton Cold Storage </t>
-  </si>
-  <si>
-    <t>ian@trencold.com</t>
-  </si>
-  <si>
-    <t>Testing : Valu Merchandisers : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Valu Merchandisers </t>
-  </si>
-  <si>
-    <t>Multiple Records</t>
-  </si>
-  <si>
-    <t>Testing : American Sales : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American Sales </t>
-  </si>
-  <si>
-    <t>Testing : Bioplus Specialty Pharmacy : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bioplus Specialty Pharmacy </t>
-  </si>
-  <si>
-    <t>Testing : CPDN : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CPDN </t>
-  </si>
-  <si>
-    <t>ljutras@cpdn.ca</t>
-  </si>
-  <si>
-    <t>scott.gibson@cpdn.ca</t>
   </si>
   <si>
     <t>Top Flight - Test Account</t>
@@ -500,21 +491,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFF1F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -522,26 +507,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFEFF1F5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,7 +1216,7 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1229,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B1" t="s">
@@ -1279,9 +1252,6 @@
       <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1293,22 +1263,19 @@
       <c r="C3" t="s">
         <v>127</v>
       </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
       <c r="E3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
         <v>129</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>121</v>
@@ -1316,13 +1283,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
         <v>132</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>133</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>134</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,6 +1322,9 @@
       <c r="C7" t="s">
         <v>140</v>
       </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1358,7 +1334,7 @@
         <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,24 +1345,16 @@
         <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" t="s">
-        <v>121</v>
+      <c r="A10" s="2"/>
+      <c r="B10" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1935,7 +1903,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/pytest.xlsx
+++ b/pytest.xlsx
@@ -41,15 +41,21 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -66,11 +72,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -78,6 +93,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,10 +1101,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1096,20 +1118,20 @@
     <col width="103" customWidth="1" style="4" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" s="4" thickBot="1">
+    <row r="1" ht="24" customHeight="1" s="4">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Testing : Agway Vendor : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Agway Vendor</t>
+          <t>Testing : Abilityone : New Trading Partner Setup</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Abilityone</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>sps@sps.com</t>
+          <t>nkumar@nib.org</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -1117,26 +1139,29 @@
           <t>done</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" s="4" thickBot="1">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="4">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Testing : Zoro Tool : New Packing List Setup Setup</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Zoro Tool</t>
+          <t>Testing : Harvey Norman : New Trading Partner Setup</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>supplierperformance@zoro.com</t>
+          <t>catherine.sule@au.harveynorman.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1144,1190 +1169,1377 @@
           <t>done</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>44466</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="4" thickBot="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Testing : Tech Data Corporation : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Tech Data Corporation</t>
+          <t>Testing : CONA Services - Taulia : New Trading Partner Setup</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>CONA Services - Taulia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>corey.schnur@techdata.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>dlasher@techdata.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>No Contacts</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>Testing : C2wireless SPS Vendor : New Trading Partner Setup</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>C2wireless SPS Vendor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cstokes@c2wdistribution.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Testing : Agway Vendor : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Agway Vendor</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>sps@sps.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Testing : Joyspring : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Joyspring</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SPS@SPS.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Testing : Juniper Commerce : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Juniper Commerce</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CVargas@junipercommerce.com</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Testing : Reny's - Down East Wholesalers : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Reny's - Down East Wholesalers</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Laura.Tobia@bgfoods.com</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Testing : Ollie's Bargain Outlet : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Ollie's Bargain Outlet</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Laura.Tobia@bgfoods.com</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Testing : Swedish Match : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Swedish Match</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>bryan.krull@swedishmatch.com</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>larry.davidson@swedishmatch.com</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Testing : Sports Experts : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Sports Experts</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Luc.Ouimet@fglsports.com</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Testing : SK Sales : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>SK Sales</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Multiple Records</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Testing : SSI Technologies Inc : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>SSI Technologies Inc</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>JJKO@ssitech.com</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>karie.s.lux@ssitech.com</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Testing : Humanscale : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Humanscale</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>No Contacts</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Testing : Raynor Gaming : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Raynor Gaming</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>dgrossman@raynorgroup.com</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Testing : Market Basket : New Trading Partner Setup</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Market Basket</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Multiple Records</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B16" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B17" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B18" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B19" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B20" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B21" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B22" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B23" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B24" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B25" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B26" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B27" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B28" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B29" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B30" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B31" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B32" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B33" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B34" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B35" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B36" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B37" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B38" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B39" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B40" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B41" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B42" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B43" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B44" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B45" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B46" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B47" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B48" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B49" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B50" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B51" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B52" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B53" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B54" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B55" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B56" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B57" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B58" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B59" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B60" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B61" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B62" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B63" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B64" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B65" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.17.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B66" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B67" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B68" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B69" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B70" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B71" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B72" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B73" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B74" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B75" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B76" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B77" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B78" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B79" s="3" t="e">
-        <v>#VALUE!</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="4">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="4">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="4">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="4">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="4">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="4">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="4">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="4">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="4">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="4">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="4">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="4">
+      <c r="B16" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="4">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="4">
+      <c r="B18" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="4">
+      <c r="B19" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="4">
+      <c r="B20" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="4">
+      <c r="B21" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="4">
+      <c r="B22" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" s="4">
+      <c r="B23" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" s="4">
+      <c r="B24" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="4">
+      <c r="B25" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" s="4">
+      <c r="B26" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" s="4">
+      <c r="B27" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="4">
+      <c r="B28" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" s="4">
+      <c r="B29" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" s="4">
+      <c r="B30" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" s="4">
+      <c r="B31" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" s="4">
+      <c r="B32" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" s="4">
+      <c r="B33" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" s="4">
+      <c r="B34" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" s="4">
+      <c r="B35" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" s="4">
+      <c r="B36" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" s="4">
+      <c r="B37" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" s="4">
+      <c r="B38" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="4">
+      <c r="B39" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" s="4">
+      <c r="B40" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="4">
+      <c r="B41" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" s="4">
+      <c r="B42" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" s="4">
+      <c r="B43" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="4">
+      <c r="B44" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="4">
+      <c r="B45" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" s="4">
+      <c r="B46" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" s="4">
+      <c r="B47" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" s="4">
+      <c r="B48" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" s="4">
+      <c r="B49" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" s="4">
+      <c r="B50" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" s="4">
+      <c r="B51" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" s="4">
+      <c r="B52" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="4">
+      <c r="B53" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="4">
+      <c r="B54" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" s="4">
+      <c r="B55" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" s="4">
+      <c r="B56" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" s="4">
+      <c r="B57" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" s="4">
+      <c r="B58" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" s="4">
+      <c r="B59" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="4">
+      <c r="B60" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="4">
+      <c r="B61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1" s="4">
+      <c r="B62" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="4">
+      <c r="B63" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" s="4">
+      <c r="B64" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" s="4">
+      <c r="B65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" s="4">
+      <c r="B66" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1" s="4">
+      <c r="B67" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1" s="4">
+      <c r="B68" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1" s="4">
+      <c r="B69" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1" s="4">
+      <c r="B70" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1" s="4">
+      <c r="B71" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1" s="4">
+      <c r="B72" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1" s="4">
+      <c r="B73" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1" s="4">
+      <c r="B74" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1" s="4">
+      <c r="B75" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1" s="4">
+      <c r="B76" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1" s="4">
+      <c r="B77" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1" s="4">
+      <c r="B78" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.27.21 </t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1" s="4">
+      <c r="B79" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B80" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="80" ht="15.75" customHeight="1" s="4">
+      <c r="B80" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B81" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="81" ht="15.75" customHeight="1" s="4">
+      <c r="B81" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B82" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="82" ht="15.75" customHeight="1" s="4">
+      <c r="B82" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B83" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="83" ht="15.75" customHeight="1" s="4">
+      <c r="B83" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B84" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="84" ht="15.75" customHeight="1" s="4">
+      <c r="B84" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B85" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="85" ht="15.75" customHeight="1" s="4">
+      <c r="B85" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B86" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="86" ht="15.75" customHeight="1" s="4">
+      <c r="B86" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B87" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="87" ht="15.75" customHeight="1" s="4">
+      <c r="B87" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B88" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="88" ht="15.75" customHeight="1" s="4">
+      <c r="B88" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B89" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="89" ht="15.75" customHeight="1" s="4">
+      <c r="B89" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B90" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="90" ht="15.75" customHeight="1" s="4">
+      <c r="B90" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B91" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="91" ht="15.75" customHeight="1" s="4">
+      <c r="B91" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B92" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="92" ht="15.75" customHeight="1" s="4">
+      <c r="B92" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B93" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="93" ht="15.75" customHeight="1" s="4">
+      <c r="B93" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B94" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="94" ht="15.75" customHeight="1" s="4">
+      <c r="B94" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B95" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="95" ht="15.75" customHeight="1" s="4">
+      <c r="B95" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B96" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="96" ht="15.75" customHeight="1" s="4">
+      <c r="B96" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B97" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="97" ht="15.75" customHeight="1" s="4">
+      <c r="B97" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B98" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="98" ht="15.75" customHeight="1" s="4">
+      <c r="B98" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B99" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="99" ht="15.75" customHeight="1" s="4">
+      <c r="B99" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B100" s="3" t="e">
-        <v>#VALUE!</v>
+    <row r="100" ht="15.75" customHeight="1" s="4">
+      <c r="B100" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.00.00 </t>
+        </is>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B101" s="3" t="e">
+    <row r="101" ht="15.75" customHeight="1" s="4">
+      <c r="B101" s="6" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B102" s="3" t="e">
+    <row r="102" ht="15.75" customHeight="1" s="4">
+      <c r="B102" s="6" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B103" s="3" t="e">
+    <row r="103" ht="15.75" customHeight="1" s="4">
+      <c r="B103" s="6" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B104" s="3" t="e">
+    <row r="104" ht="15.75" customHeight="1" s="4">
+      <c r="B104" s="6" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B105" s="3" t="e">
+    <row r="105" ht="15.75" customHeight="1" s="4">
+      <c r="B105" s="6" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B106" s="3" t="e">
+    <row r="106" ht="15.75" customHeight="1" s="4">
+      <c r="B106" s="6" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1" s="4" thickBot="1">
-      <c r="B107" s="3" t="e">
+      <c r="B107" s="6" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2366,7 +2578,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/pytest.xlsx
+++ b/pytest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.wu\PycharmProjects\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F46F03C-60F9-4802-8013-05987C99998B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="59520" yWindow="135" windowWidth="28770" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="newtp" sheetId="2" r:id="rId1"/>
@@ -17,12 +18,23 @@
     <sheet name="done" sheetId="3" r:id="rId3"/>
     <sheet name="cloud" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Testing : Asda : New Trading Partner Setup</t>
   </si>
@@ -378,101 +390,29 @@
     <t>Testing : Wilfrid Laurier University Jaggaer Cxml : New Trading Partner Setup</t>
   </si>
   <si>
-    <t>Testing : Malouf : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>No Contacts</t>
-  </si>
-  <si>
-    <t>Testing : Coborn's Central Support Pharmacy : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>Testing : Windsor Modules : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>Stephan.Henze@ajiwin.com</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>Testing : Magna Closures : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>Everardo.Rodriguez@magna.com</t>
-  </si>
-  <si>
-    <t>Testing : Magna Seating Vendor : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>Multiple Records</t>
-  </si>
-  <si>
-    <t>Testing : Lear Montgomery AL : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>Testing : Cat5 Commerce : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>Testing : Robertson : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>Testing : Thoroughbred Diesel : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>cody@viduus.org</t>
-  </si>
-  <si>
-    <t>Testing : CJ Pony Parts - File Partner : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>andy@cjponyparts.com</t>
-  </si>
-  <si>
-    <t>Testing : Quadratec Vendor : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>andrew.basenfelder@quadratec.com</t>
-  </si>
-  <si>
-    <t>Testing : Cymbio : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>edi@cym.bio</t>
-  </si>
-  <si>
-    <t>Testing : Cameron Ashley Building Products, Inc. : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>info@cameronashleybp.com</t>
-  </si>
-  <si>
-    <t>Testing : Full Compass : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>compliance@dicentral.com</t>
-  </si>
-  <si>
-    <t>Testing : Uppa Baby : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>brian@uppababy.com</t>
-  </si>
-  <si>
-    <t>Testing : Peg Perego : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>mike.palmer@pegperego.com</t>
-  </si>
-  <si>
     <t>Top Flight - Test Account</t>
+  </si>
+  <si>
+    <t>Testing : Dynamite Services : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : Elastic- Burton Snowboarding : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : Schoolisin : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : ORIENTAL TRADING COMPANY : New Packing List Setup</t>
+  </si>
+  <si>
+    <t>Testing : Focus First Global Logistics : New Trading Partner Setup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,8 +433,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,12 +450,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFF1F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,13 +493,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -841,11 +779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,1413 +797,1420 @@
     <col min="7" max="7" width="103" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="7" t="str">
-        <f t="shared" ref="B1:B48" si="0">MID(A1,SEARCH(":",A1)+2,SEARCH(":",A1,SEARCH(":",A1)+1)-SEARCH(":",A1)-3)</f>
-        <v>Malouf</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="B1" s="6" t="str">
+        <f>MID(A1,SEARCH(":",A1)+2,SEARCH(":",A1,SEARCH(":",A1)+1)-SEARCH(":",A1)-3)</f>
+        <v>Dynamite Services</v>
+      </c>
+      <c r="C1"/>
       <c r="F1" s="5">
-        <f t="shared" ref="F1:F32" ca="1" si="1">TODAY()</f>
-        <v>44510</v>
+        <f t="shared" ref="F1:F26" ca="1" si="0">TODAY()</f>
+        <v>44530</v>
       </c>
       <c r="G1" s="5" t="str">
-        <f t="shared" ref="E1:G32" ca="1" si="2">IF(E1="done",TEXT(TODAY(),"m.d.yy")&amp;" Reach out to trading partner",TEXT(TODAY(),"m.d.yy")&amp;" "&amp;C1)</f>
-        <v>11.10.21 No Contacts</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+        <f t="shared" ref="G1:G61" ca="1" si="1">IF(E1="done",TEXT(TODAY(),"m.d.yy")&amp;" Reach out to trading partner",TEXT(TODAY(),"m.d.yy")&amp;" "&amp;C1)</f>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Coborn's Central Support Pharmacy</v>
-      </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
+      <c r="B2" s="6" t="str">
+        <f t="shared" ref="B2:B61" si="2">MID(A2,SEARCH(":",A2)+2,SEARCH(":",A2,SEARCH(":",A2)+1)-SEARCH(":",A2)-3)</f>
+        <v>Elastic- Burton Snowboarding</v>
+      </c>
+      <c r="C2"/>
       <c r="F2" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 No Contacts</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Windsor Modules</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Schoolisin</v>
+      </c>
+      <c r="C3"/>
+      <c r="E3"/>
+      <c r="F3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ORIENTAL TRADING COMPANY</v>
+      </c>
+      <c r="C4"/>
+      <c r="F4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Magna Closures</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
-      </c>
-      <c r="G4" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Magna Seating Vendor</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
+      <c r="B5" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Focus First Global Logistics</v>
+      </c>
+      <c r="C5"/>
+      <c r="E5"/>
       <c r="F5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Multiple Records</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Lear Montgomery AL</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6"/>
+      <c r="E6"/>
       <c r="F6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 No Contacts</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Windsor Modules</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" t="s">
-        <v>123</v>
-      </c>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7"/>
+      <c r="E7"/>
       <c r="F7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Cat5 Commerce</v>
-      </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8"/>
+      <c r="E8"/>
       <c r="F8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Multiple Records</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Robertson</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9"/>
+      <c r="E9"/>
       <c r="F9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Multiple Records</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Thoroughbred Diesel</v>
-      </c>
-      <c r="C10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" t="s">
-        <v>123</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10"/>
+      <c r="E10"/>
       <c r="F10" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G10" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>CJ Pony Parts - File Partner</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>123</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11"/>
+      <c r="E11"/>
       <c r="F11" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Quadratec Vendor</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" t="s">
-        <v>123</v>
+      <c r="B12" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Cymbio</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" t="s">
-        <v>123</v>
+      <c r="B13" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Cameron Ashley Building Products, Inc.</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" t="s">
-        <v>123</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Full Compass</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" t="s">
-        <v>123</v>
+      <c r="B15" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Uppa Baby</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" t="s">
-        <v>123</v>
+      <c r="B16" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Peg Perego</v>
-      </c>
-      <c r="C17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" t="s">
-        <v>123</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.10.21 Reach out to trading partner</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G21" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G22" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G23" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G24" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G25" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44530</v>
       </c>
       <c r="G26" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ref="F27:F58" ca="1" si="3">TODAY()</f>
+        <v>44530</v>
       </c>
       <c r="G27" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>44530</v>
       </c>
       <c r="G28" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>44530</v>
       </c>
       <c r="G29" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>44530</v>
       </c>
       <c r="G30" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>44530</v>
       </c>
       <c r="G31" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>44530</v>
       </c>
       <c r="G32" s="5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B33" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" ref="F33:F64" ca="1" si="3">TODAY()</f>
-        <v>44510</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>44530</v>
       </c>
       <c r="G33" s="5" t="str">
-        <f t="shared" ref="G33:G62" ca="1" si="4">IF(E33="done",TEXT(TODAY(),"m.d.yy")&amp;" Reach out to trading partner",TEXT(TODAY(),"m.d.yy")&amp;" "&amp;C33)</f>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B34" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G34" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B35" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G35" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B36" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G36" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B37" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G37" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B38" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G38" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B39" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G39" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B40" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G40" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B41" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G41" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B42" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G42" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B43" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G43" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B44" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G44" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B45" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G45" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B46" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G46" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B47" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G47" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="e">
-        <f t="shared" si="0"/>
+      <c r="B48" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G48" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
+      <c r="B49" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F49" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G49" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
+      <c r="B50" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F50" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G50" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
+      <c r="B51" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F51" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G51" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
+      <c r="B52" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F52" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G52" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
+      <c r="B53" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F53" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G53" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
+      <c r="B54" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F54" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G54" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
+      <c r="B55" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F55" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G55" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
+      <c r="B56" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F56" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G56" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
+      <c r="B57" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F57" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G57" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
+      <c r="B58" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F58" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <v>44530</v>
       </c>
       <c r="G58" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
+      <c r="B59" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F59" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <f t="shared" ref="F59:F90" ca="1" si="4">TODAY()</f>
+        <v>44530</v>
       </c>
       <c r="G59" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
+      <c r="B60" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F60" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
       </c>
       <c r="G60" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
+      <c r="B61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F61" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
       </c>
       <c r="G61" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
+      <c r="B62" s="6" t="e">
+        <f t="shared" ref="B62:B90" si="5">MID(A62,SEARCH(":",A62)+2,SEARCH(":",A62,SEARCH(":",A62)+1)-SEARCH(":",A62)-3)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="F62" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
       </c>
       <c r="G62" s="5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">11.10.21 </v>
+        <f t="shared" ref="G62:G98" ca="1" si="6">IF(E62="done",TEXT(TODAY(),"m.d.yy")&amp;" Reach out to trading partner",TEXT(TODAY(),"m.d.yy")&amp;" "&amp;C62)</f>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
+      <c r="B63" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F63" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
-      </c>
-      <c r="G63" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G63" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
+      <c r="B64" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F64" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44510</v>
-      </c>
-      <c r="G64" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G64" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
+      <c r="B65" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F65" s="5">
-        <f t="shared" ref="F65:F96" ca="1" si="5">TODAY()</f>
-        <v>44510</v>
-      </c>
-      <c r="G65" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G65" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
+      <c r="B66" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F66" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G66" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G66" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
+      <c r="B67" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F67" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G67" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G67" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
+      <c r="B68" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F68" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G68" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G68" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
+      <c r="B69" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F69" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G69" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G69" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
+      <c r="B70" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F70" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G70" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G70" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
+      <c r="B71" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F71" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G71" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G71" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="7"/>
+      <c r="B72" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F72" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G72" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G72" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
+      <c r="B73" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F73" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G73" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G73" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
+      <c r="B74" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F74" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G74" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G74" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
+      <c r="B75" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F75" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G75" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G75" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
+      <c r="B76" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F76" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G76" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G76" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
+      <c r="B77" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F77" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G77" s="5">
-        <v>44466</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G77" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
+      <c r="B78" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F78" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G78" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
+      <c r="B79" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F79" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G79" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
+      <c r="B80" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F80" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G80" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
+      <c r="B81" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F81" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G81" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="7"/>
+      <c r="B82" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F82" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G82" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="7"/>
+      <c r="B83" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F83" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G83" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
+      <c r="B84" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F84" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G84" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="7"/>
+      <c r="B85" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F85" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G85" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="7"/>
+      <c r="B86" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F86" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G86" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="7"/>
+      <c r="B87" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F87" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G87" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="7"/>
+      <c r="B88" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F88" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G88" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="7"/>
+      <c r="B89" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F89" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G89" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="7"/>
+      <c r="B90" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="F90" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44530</v>
+      </c>
+      <c r="G90" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="7"/>
+      <c r="B91" s="6"/>
       <c r="F91" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
+        <f t="shared" ref="F91:F98" ca="1" si="7">TODAY()</f>
+        <v>44530</v>
+      </c>
+      <c r="G91" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="7"/>
+      <c r="B92" s="6"/>
       <c r="F92" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44530</v>
+      </c>
+      <c r="G92" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="7"/>
+      <c r="B93" s="6"/>
       <c r="F93" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44530</v>
+      </c>
+      <c r="G93" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="7"/>
+      <c r="B94" s="6"/>
       <c r="F94" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44530</v>
+      </c>
+      <c r="G94" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="7"/>
+      <c r="B95" s="6"/>
       <c r="F95" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44530</v>
+      </c>
+      <c r="G95" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="7"/>
+      <c r="B96" s="6"/>
       <c r="F96" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>44510</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44530</v>
+      </c>
+      <c r="G96" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="7"/>
+      <c r="B97" s="6"/>
       <c r="F97" s="5">
-        <f t="shared" ref="F97:F104" ca="1" si="6">TODAY()</f>
-        <v>44510</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44530</v>
+      </c>
+      <c r="G97" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="7"/>
+      <c r="B98" s="6"/>
       <c r="F98" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>44510</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44530</v>
+      </c>
+      <c r="G98" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">11.30.21 </v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="7"/>
-      <c r="F99" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>44510</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="7"/>
-      <c r="F100" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>44510</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="7"/>
-      <c r="F101" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>44510</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="7"/>
-      <c r="F102" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>44510</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="7"/>
-      <c r="F103" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>44510</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="7"/>
-      <c r="F104" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>44510</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
-    </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="7"/>
-    </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2683,7 +2628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2701,7 +2646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2715,7 +2660,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/pytest.xlsx
+++ b/pytest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.wu\PycharmProjects\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F46F03C-60F9-4802-8013-05987C99998B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F36072C-372B-49EB-80DC-3890BC4A925C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59520" yWindow="135" windowWidth="28770" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="newtp" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Testing : Asda : New Trading Partner Setup</t>
   </si>
@@ -393,26 +393,44 @@
     <t>Top Flight - Test Account</t>
   </si>
   <si>
-    <t>Testing : Dynamite Services : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>Testing : Elastic- Burton Snowboarding : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>Testing : Schoolisin : New Trading Partner Setup</t>
-  </si>
-  <si>
-    <t>Testing : ORIENTAL TRADING COMPANY : New Packing List Setup</t>
-  </si>
-  <si>
-    <t>Testing : Focus First Global Logistics : New Trading Partner Setup</t>
+    <t>Testing : Thrifty White Stores Inc : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : King Drug : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : AFS Technologies : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : Bassett Mirror Vendor : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : Bestrx : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : Costco France - EDIFACT : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : Costco Spain - EDIFACT : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : Yavari LLC : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : Gorgio Gori Transportation : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : AMC : New Trading Partner Setup</t>
+  </si>
+  <si>
+    <t>Testing : Evereve : New Trading Partner Setup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,12 +443,6 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -449,7 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFEFF1F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,10 +496,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -496,8 +507,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -780,1428 +791,1347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44" style="4" customWidth="1"/>
-    <col min="7" max="7" width="103" style="4" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44" style="3" customWidth="1"/>
+    <col min="7" max="7" width="103" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="6" t="str">
-        <f>MID(A1,SEARCH(":",A1)+2,SEARCH(":",A1,SEARCH(":",A1)+1)-SEARCH(":",A1)-3)</f>
-        <v>Dynamite Services</v>
+      <c r="B1" s="5" t="str">
+        <f t="shared" ref="B1:B32" si="0">MID(A1,SEARCH(":",A1)+2,SEARCH(":",A1,SEARCH(":",A1)+1)-SEARCH(":",A1)-3)</f>
+        <v>Thrifty White Stores Inc</v>
       </c>
       <c r="C1"/>
-      <c r="F1" s="5">
-        <f t="shared" ref="F1:F26" ca="1" si="0">TODAY()</f>
-        <v>44530</v>
-      </c>
-      <c r="G1" s="5" t="str">
-        <f t="shared" ref="G1:G61" ca="1" si="1">IF(E1="done",TEXT(TODAY(),"m.d.yy")&amp;" Reach out to trading partner",TEXT(TODAY(),"m.d.yy")&amp;" "&amp;C1)</f>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="E1"/>
+      <c r="F1" s="4">
+        <f t="shared" ref="F1:F20" ca="1" si="1">TODAY()</f>
+        <v>44551</v>
+      </c>
+      <c r="G1" s="4" t="str">
+        <f t="shared" ref="G1:G32" ca="1" si="2">IF(E1="done",TEXT(TODAY(),"m.d.yy")&amp;" Reach out to trading partner",TEXT(TODAY(),"m.d.yy")&amp;" "&amp;C1)</f>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="6" t="str">
-        <f t="shared" ref="B2:B61" si="2">MID(A2,SEARCH(":",A2)+2,SEARCH(":",A2,SEARCH(":",A2)+1)-SEARCH(":",A2)-3)</f>
-        <v>Elastic- Burton Snowboarding</v>
+      <c r="B2" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>King Drug</v>
       </c>
       <c r="C2"/>
-      <c r="F2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G2" s="5" t="str">
+      <c r="E2"/>
+      <c r="F2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Schoolisin</v>
+      <c r="B3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>AFS Technologies</v>
       </c>
       <c r="C3"/>
       <c r="E3"/>
-      <c r="F3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G3" s="5" t="str">
+      <c r="F3" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+        <v>44551</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>ORIENTAL TRADING COMPANY</v>
+      <c r="B4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bassett Mirror Vendor</v>
       </c>
       <c r="C4"/>
-      <c r="F4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G4" s="5" t="str">
+      <c r="E4"/>
+      <c r="F4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+        <v>44551</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Focus First Global Logistics</v>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bestrx</v>
       </c>
       <c r="C5"/>
       <c r="E5"/>
-      <c r="F5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G5" s="5" t="str">
+      <c r="F5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6"/>
-      <c r="E6"/>
-      <c r="F6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G6" s="5" t="str">
+      <c r="A6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Costco France - EDIFACT</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7"/>
-      <c r="E7"/>
-      <c r="F7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G7" s="5" t="str">
+      <c r="A7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Costco Spain - EDIFACT</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8"/>
-      <c r="E8"/>
-      <c r="F8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G8" s="5" t="str">
+      <c r="A8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Yavari LLC</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9"/>
-      <c r="E9"/>
-      <c r="F9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G9" s="5" t="str">
+      <c r="A9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Gorgio Gori Transportation</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10"/>
-      <c r="E10"/>
-      <c r="F10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G10" s="5" t="str">
+        <v>44551</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>AMC</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11"/>
-      <c r="E11"/>
-      <c r="F11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G11" s="5" t="str">
+        <v>44551</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Evereve</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G12" s="5" t="str">
+      <c r="B12" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G13" s="5" t="str">
+      <c r="B13" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G14" s="5" t="str">
+      <c r="B14" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G15" s="5" t="str">
+      <c r="B15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G16" s="5" t="str">
+      <c r="B16" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G17" s="5" t="str">
+      <c r="B17" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G18" s="5" t="str">
+      <c r="B18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G19" s="5" t="str">
+      <c r="B19" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G20" s="5" t="str">
+      <c r="B20" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+        <v>44551</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G21" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B21" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" ref="F21:F52" ca="1" si="3">TODAY()</f>
+        <v>44551</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G22" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B22" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G23" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B23" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G24" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B24" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G25" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B25" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44530</v>
-      </c>
-      <c r="G26" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B26" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" ref="F27:F58" ca="1" si="3">TODAY()</f>
-        <v>44530</v>
-      </c>
-      <c r="G27" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B27" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G28" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B28" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G29" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B29" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G30" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B30" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G31" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B31" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G32" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B32" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G33" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B33" s="5" t="e">
+        <f t="shared" ref="B33:B64" si="4">MID(A33,SEARCH(":",A33)+2,SEARCH(":",A33,SEARCH(":",A33)+1)-SEARCH(":",A33)-3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" ref="G33:G55" ca="1" si="5">IF(E33="done",TEXT(TODAY(),"m.d.yy")&amp;" Reach out to trading partner",TEXT(TODAY(),"m.d.yy")&amp;" "&amp;C33)</f>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G34" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B34" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G35" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B35" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G36" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B36" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G37" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B37" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G38" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B38" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G39" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B39" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G40" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B40" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G41" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B41" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G42" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B42" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G43" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B43" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G44" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B44" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F45" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G45" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B45" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G46" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B46" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G47" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B47" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G48" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B48" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G49" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B49" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G50" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B50" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F51" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G51" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B51" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G52" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B52" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>44551</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G53" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B53" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" ref="F53:F84" ca="1" si="6">TODAY()</f>
+        <v>44551</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G54" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B54" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F55" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G55" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B55" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F56" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G56" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B56" s="5" t="e">
+        <f t="shared" ref="B56:B84" si="7">MID(A56,SEARCH(":",A56)+2,SEARCH(":",A56,SEARCH(":",A56)+1)-SEARCH(":",A56)-3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" ref="G56:G92" ca="1" si="8">IF(E56="done",TEXT(TODAY(),"m.d.yy")&amp;" Reach out to trading partner",TEXT(TODAY(),"m.d.yy")&amp;" "&amp;C56)</f>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G57" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B57" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>44530</v>
-      </c>
-      <c r="G58" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B58" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" s="5">
-        <f t="shared" ref="F59:F90" ca="1" si="4">TODAY()</f>
-        <v>44530</v>
-      </c>
-      <c r="G59" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B59" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G60" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B60" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G61" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B61" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="e">
-        <f t="shared" ref="B62:B90" si="5">MID(A62,SEARCH(":",A62)+2,SEARCH(":",A62,SEARCH(":",A62)+1)-SEARCH(":",A62)-3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F62" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G62" s="5" t="str">
-        <f t="shared" ref="G62:G98" ca="1" si="6">IF(E62="done",TEXT(TODAY(),"m.d.yy")&amp;" Reach out to trading partner",TEXT(TODAY(),"m.d.yy")&amp;" "&amp;C62)</f>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B62" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F63" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G63" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B63" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G64" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B64" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F65" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G65" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B65" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F66" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G66" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B66" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F67" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G67" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B67" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F68" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G68" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B68" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F69" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G69" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B69" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F70" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G70" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B70" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F71" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G71" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B71" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F72" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G72" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B72" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F73" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G73" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B73" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F74" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G74" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B74" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F75" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G75" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B75" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F76" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G76" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B76" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F77" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G77" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B77" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F78" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G78" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B78" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F79" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G79" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B79" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F80" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G80" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B80" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F81" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G81" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B81" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F82" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G82" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B82" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F82" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F83" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G83" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B83" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F84" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G84" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B84" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>44551</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F85" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G85" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B85" s="5"/>
+      <c r="F85" s="4">
+        <f t="shared" ref="F85:F92" ca="1" si="9">TODAY()</f>
+        <v>44551</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G86" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B86" s="5"/>
+      <c r="F86" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>44551</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G87" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B87" s="5"/>
+      <c r="F87" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>44551</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F88" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G88" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B88" s="5"/>
+      <c r="F88" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>44551</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G89" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B89" s="5"/>
+      <c r="F89" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>44551</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F90" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>44530</v>
-      </c>
-      <c r="G90" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B90" s="5"/>
+      <c r="F90" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>44551</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-      <c r="F91" s="5">
-        <f t="shared" ref="F91:F98" ca="1" si="7">TODAY()</f>
-        <v>44530</v>
-      </c>
-      <c r="G91" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B91" s="5"/>
+      <c r="F91" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>44551</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
-      <c r="F92" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>44530</v>
-      </c>
-      <c r="G92" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
+      <c r="B92" s="5"/>
+      <c r="F92" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>44551</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">12.21.21 </v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="F93" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>44530</v>
-      </c>
-      <c r="G93" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-      <c r="F94" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>44530</v>
-      </c>
-      <c r="G94" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-      <c r="F95" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>44530</v>
-      </c>
-      <c r="G95" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-      <c r="F96" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>44530</v>
-      </c>
-      <c r="G96" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="F97" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>44530</v>
-      </c>
-      <c r="G97" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="F98" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>44530</v>
-      </c>
-      <c r="G98" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve">11.30.21 </v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2219,7 +2149,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="118.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="118.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2635,10 +2565,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2655,7 +2585,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60" style="4" customWidth="1"/>
+    <col min="1" max="1" width="60" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
